--- a/List.xlsx
+++ b/List.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Animal</t>
   </si>
